--- a/MT - Stories.xlsx
+++ b/MT - Stories.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="358">
   <si>
     <t>Title</t>
   </si>
@@ -936,12 +936,180 @@
   <si>
     <t>Story: -newpaper name- has received information that there are spies on mars sent from Earth. Sources say a spy was noticed in the spacebar in -dome- highly intoxicated and attempting to hit on any woman in the dome using the pickup line "I am the greatest secret agent ever".</t>
   </si>
+  <si>
+    <t>Situation: Before Colonists</t>
+  </si>
+  <si>
+    <t>Title: -Drone name- Breaks down</t>
+  </si>
+  <si>
+    <t>Story: -Drone name- suffered a minor fault to its front left wheel, causing the drone to be unable to compleate tasks this sol, however, the lucky drone had friends, namely -random drone- who noticed -drone name- struggling and helped to repair their wheel.</t>
+  </si>
+  <si>
+    <t>Situation: Mid-game (not nessicary to attach to actual distance) has RC Explorer</t>
+  </si>
+  <si>
+    <t>Title: A Martian marathon</t>
+  </si>
+  <si>
+    <t>Story: Mars' first RC Explorer has now compleated 42.2 Kilometers, or 26.2 miles, compleating Its own personal marathon on Mars. We at -newspaper name- support this great explorer in its marthian effort.</t>
+  </si>
+  <si>
+    <t>Situation- any (This is a reference to Tropico, which is also made by Haemimont Games) Title: El Presidente to visit Mars</t>
+  </si>
+  <si>
+    <t>Story: Self proclaimed El Presidente of Cayo de Fortuna has decided on an official visit to Mars, with hopes of meeting -current leader of mars- and brokering a trade deal.</t>
+  </si>
+  <si>
+    <t>Situation: have guru + Garden</t>
+  </si>
+  <si>
+    <t>Title: Guru in the Garden</t>
+  </si>
+  <si>
+    <t>Story: Martian Guru -name- has informed -newspaper name- that they will be holding frequent Guruing sesions in dome gardens. "The garden is the natural spot for gurus like me, it lets me reach a more intense inner core, and connect more deeply with people, and nature"</t>
+  </si>
+  <si>
+    <t>Situation: Have Saint -late game-</t>
+  </si>
+  <si>
+    <t>Title: The faith of Mars (this contains a star wars reference) Story: Religion has become a very important part of martian life, ever since our first founders, who helped meld together all forms of Christiondom, Islam and Judaeism into a single super faith. Today, there are a wide variety of religions on Mars, The True Humanitys society, who follow the teachings of Earth, and worship her children, The Jedi, who follow the teachings of a galaxy far far away, The aforementioned Tri-Faith, which follows the teachings Earthian faiths, and of course, the Red Church of Mars, which needs no explination.</t>
+  </si>
+  <si>
+    <t>Situation: more then one dome</t>
+  </si>
+  <si>
+    <t>Title: Revolution in Dome to dome Messaging</t>
+  </si>
+  <si>
+    <t>Story:Scientists have discovered an astounding new way to maximise efficiency in dome to dome communication, by tying a piece of string between two food cans, it is possible to transfer your voice from one dome to another, this is a huge step forward from the previous methood of writing on the dome walls.</t>
+  </si>
+  <si>
+    <t>Situation: Before colonists</t>
+  </si>
+  <si>
+    <t>Title: Drone reverse engineering</t>
+  </si>
+  <si>
+    <t>Story: After many days, drones have finaly compleated reverse engineering training, and can now move both forwards and backwards. A huge help on the un-even surface of Mars.</t>
+  </si>
+  <si>
+    <t>Situation: Have renegades (This is a part 1 *A) (This title is a reference to Stelaris, also produced by paradox interactive, the story contains a loose reference to fight club the movie)</t>
+  </si>
+  <si>
+    <t>Title: They're fighting, stop fighting!</t>
+  </si>
+  <si>
+    <t>Story: local outspoken dome inhabitant -renegade name- was caught fighting this morning. It is understood that -renegade- may have been attempting to start a club.</t>
+  </si>
+  <si>
+    <t>Situation: Have Renegades (This is a part 2 *A) (This is a very clear reference to fight club the movie) Title: Retraction on Fight Club</t>
+  </si>
+  <si>
+    <t>Story: -newspaper name- wishes to apologise for any upset caused in publishing details of the rumered club referenced in the story "They're fighting, stop fighting", -newspaper name- has been informed that they can not talk about this club.</t>
+  </si>
+  <si>
+    <t>Situation: Any (This is a reference to Civilisation 5) Title: New World Guru of peace threatens nuclear annihilation if annoyed.</t>
+  </si>
+  <si>
+    <t>Story: The Leader of a nation on earth, known for his peacefull ways, and non-violence has threatened the world with nuclear annihilation if they put any more cities close to his territory. More on this as it develops.</t>
+  </si>
+  <si>
+    <t>Situation: Any, anytime, even before colonists.</t>
+  </si>
+  <si>
+    <t>Title: Macburgers considering expansion to Mars.</t>
+  </si>
+  <si>
+    <t>Story: The large, multinational company Macburgers, is seeking to become the first Multiplanetary company in history, with plans put forward to open a store on the red planet. There is strong opposition to the plan, even within the company, mainly due to the lack of money on Mars meaning no profit for the store.</t>
+  </si>
+  <si>
+    <t>Situation: Any.</t>
+  </si>
+  <si>
+    <t>Title: Young Martians confused by song "year 3000"</t>
+  </si>
+  <si>
+    <t>Story: An old earth song has become quite popular on Mars, but not for the reason you would expect. The Song Year 3000 by Busted has confused many young martians, who cannot comprehend enough water to cover everything. "How can everything be underwater? Water is under US!"</t>
+  </si>
+  <si>
+    <t>Situation: Dome has a crack (This is an engineering story) Title: Drone Repairs -Dome name- Dome</t>
+  </si>
+  <si>
+    <t>Story: -dome name- recently developed a large crack, allowing precious oxygen to escape. Lucky for us oxygen breathing humans, the drones were quick to react, glueing a full box of polymers to the crack.</t>
+  </si>
+  <si>
+    <t>Situation: any (even before colonists)</t>
+  </si>
+  <si>
+    <t>Title: Were we really the first?</t>
+  </si>
+  <si>
+    <t>Story: Reports are coming in that -mission sponser- may not be the first to have arrived on Mars, as an ancient Viking ship was found under the red surface. The ship contained manuscripts that state the Vikings called mars "Blue land".</t>
+  </si>
+  <si>
+    <t>Situation: First founders</t>
+  </si>
+  <si>
+    <t>Title: First Quote from the first Martian. (Please note, the quote is taken from https://www.reddit.com/r/AskReddit/comments/3g62g9/serious_what_should_the_first_man_on_mars_say_to/ and should be credited to user ramsesthepigeon as such) Story: "Our journey began with one small step and one giant leap. Today, we take another of each, and begin to find our stride". Powerfull words from -founder- as Humanity expands for the first time to another planet. overcoming and defeating the cruel nature of mars. We stride into the future.</t>
+  </si>
+  <si>
+    <t>Situation: 100 sols</t>
+  </si>
+  <si>
+    <t>Title: Mars Day</t>
+  </si>
+  <si>
+    <t>Story: Today we celebrate Mars day, a day of merryment and joy, to celebrate Humaniy shooting for the stars, and finding home away from home. We are martians, and we are proud, join with your friends and family in a great meal, come to the space bar for a drink, but most importantly, go to work.</t>
+  </si>
+  <si>
+    <t>Situation: followup to olympic bid story</t>
+  </si>
+  <si>
+    <t>Title: The Martian Games</t>
+  </si>
+  <si>
+    <t>Story: Following The Failed bid to host the olympics on Mars, -leader- has decided to create our own games, with Blackjack and hoopers. Games of hoopers will take place in the open air gym. Also considered for the martian games are "dome skiiing" where contestants will race down the outside of a dome and Drone jumping. (NB, Please change previous story to include "hoopers" it makes it a much more direct reference to "blackjack and hookers" from futurama).</t>
+  </si>
+  <si>
+    <t>Situation: Any (funnier before colonists)</t>
+  </si>
+  <si>
+    <t>Title: Mysterious radio station causes concern</t>
+  </si>
+  <si>
+    <t>Story: The martian planet is being entertained by the great hosts at Mars Radio One, but what has -newspaper name- concerned is that there is no facilities to broadcast a radio station on mars. Come to think of it, there's no facilities to make a newspaper either... lets just let it slide then.</t>
+  </si>
+  <si>
+    <t>Situation: Second rocket lands</t>
+  </si>
+  <si>
+    <t>Story: All the Drones on Mars watch in amazement as the rocket -rocket name- lands safely on the surface. Kicking up storm of red dust, the rocket brings us closer to the future of Martian civilisation.</t>
+  </si>
+  <si>
+    <t>Situation:someone is earthsick</t>
+  </si>
+  <si>
+    <t>Title: -name of earthsick colonist- misses home</t>
+  </si>
+  <si>
+    <t>Story -name- has told us here at -newspaper- that they really miss home. despite our best efforts to remind them that this is home, -name- has still said they want to leave the red planet. "I just miss being able to breath air, see water, and eat meat, man i really miss meat.</t>
+  </si>
+  <si>
+    <t>Situation: Any</t>
+  </si>
+  <si>
+    <t>Title: Ask your Medic for Domelenol painkiller!</t>
+  </si>
+  <si>
+    <t>Story: Got any aches and pains? Go to the infirmery and ask for Domelenol painkiller, the only painkiller on mars. Warning; Domelenol will not cure earthsickness, headaches, being an idiot, toothaches, alcoholism, feelings of loneliness, Gambling addiction, or just about anything else.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -977,6 +1145,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -995,10 +1178,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1050,8 +1234,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2466,9 +2654,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A73"/>
+  <dimension ref="A1:A151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2801,8 +2991,351 @@
         <v>301</v>
       </c>
     </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="15" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="15" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="15" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="15"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="15" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="15"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="15" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="15" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="15"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="15" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="15" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="15"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="15" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A92" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="15"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="15" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="15" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="15"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="15" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="15" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="15" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="15"/>
+    </row>
+    <row r="102" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="15" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="15"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="15" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="15" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="15"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="15" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="15" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="15"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="15" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A114" s="15" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="15"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="15" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="15" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="15" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="15"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="15" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="15" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="15"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="15" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="15"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="15" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A128" s="19" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="19"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="15" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="15" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A132" s="15" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="15"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="15" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="15" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A136" s="15" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="15"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="15" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="15" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="15"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="15" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A143" s="15" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="15"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="15" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="15" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A147" s="15" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="15"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="15" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="15" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151" s="15" t="s">
+        <v>357</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A128" r:id="rId1" display="https://www.reddit.com/r/AskReddit/comments/3g62g9/serious_what_should_the_first_man_on_mars_say_to/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/MT - Stories.xlsx
+++ b/MT - Stories.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="18195" windowHeight="9795" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="18195" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="4" r:id="rId1"/>
@@ -43,9 +43,6 @@
     <t>3+ rockets on planet</t>
   </si>
   <si>
-    <t>Rocket Silhouettes Mar Landscape</t>
-  </si>
-  <si>
     <t>With so many rockets planetside, one would think that we have more than enough to succeed and flourish, but all those resources are languishing in the hands of &lt;MTLeaderTitle&gt; &lt;MTLeader&gt;.  Perhaps it’s time to fire up that Drone Assembler, a few more Fuel Refineries, and redistribute the workload.  If things remain as they are, who knows how much longer &lt;MTLeaderTitle&gt; &lt;MTLeader&gt; will remain in office…</t>
   </si>
   <si>
@@ -67,36 +64,18 @@
     <t>Financial Collapse Imminent</t>
   </si>
   <si>
-    <t>under $200 M, 100 rare metals, no rocket en route</t>
-  </si>
-  <si>
     <t>When we came to this planet we thought that we were leaving modern financial woes behind us, but as it turns out poor colony management has led to an unforeseen long-term dependence upon our sponsor and may very well lead to our collapse.  No supplies are incoming from Earth any time soon.  Just one unfortunate meteor storm and our domes could become oversized oxygen geysers.  Let’s hope that &lt;MTLeaderTitle&gt; &lt;MTLeader&gt; has a plan, but who am I kidding but myself if I think that…</t>
   </si>
   <si>
-    <t>MTMain.NoRockets</t>
-  </si>
-  <si>
-    <t>MTMain.3Rockets</t>
-  </si>
-  <si>
     <t>MTMain.HackThePlanet</t>
   </si>
   <si>
-    <t>MTMain.FounderLegacy</t>
-  </si>
-  <si>
-    <t>There are only 12 people who will ever be known as The Founders&gt;.  These extraordinary men and women risked their lives to venture into the Final Frontier and gain a foothold on the Red Planet.  They toiled day and night, working non-stop to ensure constant and consistent air flow, water pressure, power generation, and more.  While we go about our sol today we must remember to take a moment and honor those who came before us, those who made all that we see around us today possible.  Founder’s Day will be celebrated in the &lt;RELAXATIONBUILDING&gt; in &lt;LARGESTSIZEDOMEBUIT&gt; later this afternoon where we will be taking 12 minutes of silence in memory of these most excellent of individuals.</t>
-  </si>
-  <si>
     <t>10 sol after last founder has died</t>
   </si>
   <si>
     <t>The Founder's Legacy</t>
   </si>
   <si>
-    <t>Attending a clinic is often a place to learn, unless you’re &lt;MTLeaderTitle&gt; &lt;MTLeader&gt;.  Apparently it’s expected that resources will move themselves and planning is just plain overrated.  &lt;MTLeaderTitle&gt;, we need more drones and we need them yesterday!  I only hope that &lt;DOMEwithNOfarm&gt; receives their supplies in time.</t>
-  </si>
-  <si>
     <t>A Clinic on Inefficiency</t>
   </si>
   <si>
@@ -170,9 +149,6 @@
   </si>
   <si>
     <t>This is our world now.  The world of rare metals, electronics and universal depots.  On Earth war is waged over economics, religion, and borders.  Here we fight for survival on a primal level.  We are the Martian people.  We will not give up.  We will not give in.  We will continue to build, continue to expand and populate this planet.  No meteor storm will stop us.  We are Martian.</t>
-  </si>
-  <si>
-    <t>We are Martian</t>
   </si>
   <si>
     <t>none</t>
@@ -487,12 +463,6 @@
     <t>Contributor</t>
   </si>
   <si>
-    <t>MTMain.none.2</t>
-  </si>
-  <si>
-    <t>MTMain.none.1</t>
-  </si>
-  <si>
     <t>On This Day in 1965</t>
   </si>
   <si>
@@ -532,9 +502,6 @@
     <t>The Answer To Life Is Always 42</t>
   </si>
   <si>
-    <t>MTMain.none.3</t>
-  </si>
-  <si>
     <t>On This Day in 1976</t>
   </si>
   <si>
@@ -544,18 +511,12 @@
     <t>On July 20th, 1976, Viking 1 pulled out the landing gear and set down on Martian soil for the first time in human history.  What we have come to accomplish in such few years since then is nothing less than incredible.  What an experience it is to actually set foot on Mars and to literally, walk among the stars!</t>
   </si>
   <si>
-    <t>MTMain.none.4</t>
-  </si>
-  <si>
     <t>On This Day in 1997</t>
   </si>
   <si>
     <t>On July 4th, 1997, NASA set down the very first rover on the Red Planet.  Shortly after the Mars Pathfinder landed, Sojourner, a solar-powered rover, rolled out and began to scan the surface.  Expected to last just 7 sol, it was finally called to a stop after 91 sol having traveled a total of just over 100 meters and sent a myriad of photos back to Earth for study.</t>
   </si>
   <si>
-    <t>MTMain.none.5</t>
-  </si>
-  <si>
     <t>On This Day in 2015</t>
   </si>
   <si>
@@ -571,9 +532,6 @@
     <t>MTMain.NoHumans</t>
   </si>
   <si>
-    <t>No humans, after Sol 5</t>
-  </si>
-  <si>
     <t>Colonist with Sexy trait</t>
   </si>
   <si>
@@ -586,9 +544,6 @@
     <t>In an unexpected turn of events, &lt;MTSexyColonist&gt; has taken it upon themselves to produce the first ever Martian adult film.  Starring 11 different colonists with &lt;MTSexyColonist&gt; as the lead, it has become quite a hit on earth.  The film also provides a sneak peek into Martian pipe work and stockpiles of electronics and machine parts in the background.  &lt;MTSponsor&gt; has declared themselves not responsible for the social decisions of colonists and praised the artistic vision of the Director.</t>
   </si>
   <si>
-    <t>MTMain.none.6</t>
-  </si>
-  <si>
     <t>Push For Drone Rights</t>
   </si>
   <si>
@@ -664,15 +619,6 @@
     <t>Sponsor Funds Depleted</t>
   </si>
   <si>
-    <t>MTMain.Finances.1</t>
-  </si>
-  <si>
-    <t>MTMain.Finances.2</t>
-  </si>
-  <si>
-    <t>MTMain.Finances.3</t>
-  </si>
-  <si>
     <t>Sponsor Cites Insider Trading Woes</t>
   </si>
   <si>
@@ -1103,13 +1049,67 @@
   </si>
   <si>
     <t>Story: Got any aches and pains? Go to the infirmery and ask for Domelenol painkiller, the only painkiller on mars. Warning; Domelenol will not cure earthsickness, headaches, being an idiot, toothaches, alcoholism, feelings of loneliness, Gambling addiction, or just about anything else.</t>
+  </si>
+  <si>
+    <t>MTMain.MTrockets3</t>
+  </si>
+  <si>
+    <t>MTMain.MTrockets0</t>
+  </si>
+  <si>
+    <t>Rocket Silhouettes Mar Martian Landscape</t>
+  </si>
+  <si>
+    <t>MTMain.Finances1</t>
+  </si>
+  <si>
+    <t>MTMain.Finances2</t>
+  </si>
+  <si>
+    <t>MTMain.Finances3</t>
+  </si>
+  <si>
+    <t>under $300 M, 100 rare metals, no rocket en route</t>
+  </si>
+  <si>
+    <t>Attending a clinic is often a place to learn, unless you’re &lt;MTLeaderTitle&gt; &lt;MTLeader&gt;.  Apparently it’s expected that resources will move themselves and planning is just plain overrated.  &lt;MTLeaderTitle&gt;, we need more drones and we need them yesterday!  I only hope that &lt;DOMEwithNOfarm&gt; receives their food and other essential supplies in time.</t>
+  </si>
+  <si>
+    <t>There are only 12 people who will ever be known as Founders.  These extraordinary men and women risked their lives to venture into the Final Frontier and gain a foothold on the Red Planet.  They toiled day and night, working non-stop to ensure constant and consistent air flow, water pressure, power generation, and more.  While we go about our sol today we must remember to take a moment and honor those who came before us, those who made all that we see around us today possible.  Founder’s Day will be celebrated in the &lt;RELAXATIONBUILDING&gt; in &lt;LARGESTSIZEDOMEBUIT&gt; later this afternoon where we will be taking 12 minutes of silence in memory of these most excellent of individuals.</t>
+  </si>
+  <si>
+    <t>MTMain.Founders</t>
+  </si>
+  <si>
+    <t>We Are Martian</t>
+  </si>
+  <si>
+    <t>MTMain.MTWeAreMartian</t>
+  </si>
+  <si>
+    <t>MTOnThisDayin1997</t>
+  </si>
+  <si>
+    <t>MTOnThisDayin1976</t>
+  </si>
+  <si>
+    <t>MTOnThisDayin1965</t>
+  </si>
+  <si>
+    <t>MTOnThisDayin2015</t>
+  </si>
+  <si>
+    <t>MTDroneRights</t>
+  </si>
+  <si>
+    <t>No humans</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1160,6 +1160,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1182,7 +1189,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1225,17 +1232,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1541,8 +1555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1550,7 +1564,7 @@
     <col min="1" max="1" width="24.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" style="4" customWidth="1"/>
     <col min="3" max="3" width="31.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="78.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="112.28515625" style="4" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" style="4" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="4"/>
   </cols>
@@ -1560,7 +1574,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C1" s="9">
         <v>22</v>
@@ -1580,330 +1594,336 @@
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+    </row>
+    <row r="5" spans="1:5" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="18"/>
+    </row>
+    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="17"/>
-    </row>
-    <row r="10" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>210</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="D16" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="4" t="s">
+    </row>
+    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+    </row>
+    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    </row>
+    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="B25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="4" t="s">
+    </row>
+    <row r="27" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="D27" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="B28" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>169</v>
+      <c r="C28" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>158</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="D32" s="21" t="s">
         <v>172</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D33" s="13"/>
     </row>
     <row r="35" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>178</v>
+      <c r="A35" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>165</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>184</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1922,8 +1942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E32" sqref="A32:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1940,7 +1960,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C1" s="11">
         <v>23</v>
@@ -1960,69 +1980,69 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2030,44 +2050,44 @@
     </row>
     <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C10" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2078,241 +2098,241 @@
     </row>
     <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E20" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B23" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B26" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C26" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D26" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" t="s">
         <v>137</v>
-      </c>
-      <c r="E26" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B28" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C28" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B30" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C30" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E30" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B32" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E32" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B34" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C34" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E34" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="B36" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C36" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="B40" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="C40" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="B42" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="C42" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2326,7 +2346,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2343,7 +2363,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C1" s="11">
         <v>22</v>
@@ -2365,285 +2385,285 @@
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B24" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C24" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E24" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B26" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="C26" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="B28" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C28" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="B30" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="C30" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="B31" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="C31" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="B33" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C33" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="B34" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="C34" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="B37" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="C37" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2656,7 +2676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+    <sheetView topLeftCell="A133" workbookViewId="0">
       <selection activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
@@ -2667,22 +2687,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -2690,17 +2710,17 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -2708,17 +2728,17 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
@@ -2726,17 +2746,17 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -2744,17 +2764,17 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -2762,17 +2782,17 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
@@ -2780,17 +2800,17 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
@@ -2798,17 +2818,17 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
@@ -2816,17 +2836,17 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
@@ -2834,17 +2854,17 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
@@ -2852,17 +2872,17 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
@@ -2870,17 +2890,17 @@
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
@@ -2888,17 +2908,17 @@
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
@@ -2906,17 +2926,17 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
@@ -2924,17 +2944,17 @@
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
@@ -2942,17 +2962,17 @@
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
@@ -2960,17 +2980,17 @@
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
@@ -2978,32 +2998,32 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
@@ -3011,17 +3031,17 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="15" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
@@ -3029,12 +3049,12 @@
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="15" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="15" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
@@ -3042,17 +3062,17 @@
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="15" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
@@ -3060,12 +3080,12 @@
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
@@ -3073,17 +3093,17 @@
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
@@ -3091,17 +3111,17 @@
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
@@ -3109,17 +3129,17 @@
     </row>
     <row r="102" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="15" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="15" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="15" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
@@ -3127,12 +3147,12 @@
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="15" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
@@ -3140,12 +3160,12 @@
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="15" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
@@ -3153,17 +3173,17 @@
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="15" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
@@ -3171,17 +3191,17 @@
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="15" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="15" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="15" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
@@ -3189,12 +3209,12 @@
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="15" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="15" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
@@ -3202,17 +3222,17 @@
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="15" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="15" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="15" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
@@ -3220,30 +3240,30 @@
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="15" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A128" s="19" t="s">
-        <v>340</v>
+      <c r="A128" s="16" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="19"/>
+      <c r="A129" s="16"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="15" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="15" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="15" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
@@ -3251,17 +3271,17 @@
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="15" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="15" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A136" s="15" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
@@ -3269,17 +3289,17 @@
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="15" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="15" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="15" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
@@ -3287,12 +3307,12 @@
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="15" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="15" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
@@ -3300,17 +3320,17 @@
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="15" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="15" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="15" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
@@ -3318,17 +3338,17 @@
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="15" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="15" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="15" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/MT - Stories.xlsx
+++ b/MT - Stories.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="355">
   <si>
     <t>Title</t>
   </si>
@@ -59,12 +59,6 @@
   </si>
   <si>
     <t>Our primary manifesto as a society is to populate the Red Planet.  Someone should remind &lt;MTLeaderTitle&gt; &lt;MTLeader&gt; about that.  They seem to think that scanning the surface and finding suitable resources and dome locations serves no particular purpose.  Have you seen our metals supply lately?  This water isn’t going to last forever, you know.  We need more Sensor Towers.  When will we learn from the past?  The time is now!  This planet is ours for the taking, but only if we know what’s out there!</t>
-  </si>
-  <si>
-    <t>Financial Collapse Imminent</t>
-  </si>
-  <si>
-    <t>When we came to this planet we thought that we were leaving modern financial woes behind us, but as it turns out poor colony management has led to an unforeseen long-term dependence upon our sponsor and may very well lead to our collapse.  No supplies are incoming from Earth any time soon.  Just one unfortunate meteor storm and our domes could become oversized oxygen geysers.  Let’s hope that &lt;MTLeaderTitle&gt; &lt;MTLeader&gt; has a plan, but who am I kidding but myself if I think that…</t>
   </si>
   <si>
     <t>MTMain.HackThePlanet</t>
@@ -529,9 +523,6 @@
     <t>01000100 01110010 01101111 01101110 01100101 01110011 00100000 01101100 01101111 01101110 01100101 01101100 01111001 00101100 00100000 01100010 01110010 01101001 01101110 01100111 00100000 01101000 01110101 01101101 01100001 01101110 01110011 00100000 01110000 01101100 01100101 01100001 01110011 01100101 00101110</t>
   </si>
   <si>
-    <t>MTMain.NoHumans</t>
-  </si>
-  <si>
     <t>Colonist with Sexy trait</t>
   </si>
   <si>
@@ -1066,21 +1057,12 @@
     <t>MTMain.Finances2</t>
   </si>
   <si>
-    <t>MTMain.Finances3</t>
-  </si>
-  <si>
-    <t>under $300 M, 100 rare metals, no rocket en route</t>
-  </si>
-  <si>
     <t>Attending a clinic is often a place to learn, unless you’re &lt;MTLeaderTitle&gt; &lt;MTLeader&gt;.  Apparently it’s expected that resources will move themselves and planning is just plain overrated.  &lt;MTLeaderTitle&gt;, we need more drones and we need them yesterday!  I only hope that &lt;DOMEwithNOfarm&gt; receives their food and other essential supplies in time.</t>
   </si>
   <si>
     <t>There are only 12 people who will ever be known as Founders.  These extraordinary men and women risked their lives to venture into the Final Frontier and gain a foothold on the Red Planet.  They toiled day and night, working non-stop to ensure constant and consistent air flow, water pressure, power generation, and more.  While we go about our sol today we must remember to take a moment and honor those who came before us, those who made all that we see around us today possible.  Founder’s Day will be celebrated in the &lt;RELAXATIONBUILDING&gt; in &lt;LARGESTSIZEDOMEBUIT&gt; later this afternoon where we will be taking 12 minutes of silence in memory of these most excellent of individuals.</t>
   </si>
   <si>
-    <t>MTMain.Founders</t>
-  </si>
-  <si>
     <t>We Are Martian</t>
   </si>
   <si>
@@ -1103,6 +1085,15 @@
   </si>
   <si>
     <t>No humans</t>
+  </si>
+  <si>
+    <t>MTNoHumansStory() / MTNoHumans</t>
+  </si>
+  <si>
+    <t>under $300 M</t>
+  </si>
+  <si>
+    <t>MTMain.FounderLegacy</t>
   </si>
 </sst>
 </file>
@@ -1189,7 +1180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1204,17 +1195,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1241,9 +1223,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1251,6 +1230,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1553,30 +1548,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="112.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="24.85546875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" style="23" customWidth="1"/>
+    <col min="4" max="4" width="112.28515625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="9">
+      <c r="B1" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="22">
         <v>22</v>
       </c>
     </row>
@@ -1594,336 +1589,321 @@
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="14" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="19"/>
+    </row>
+    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="17" t="s">
+      <c r="B10" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-    </row>
-    <row r="5" spans="1:5" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>341</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="18"/>
-    </row>
-    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="B10" s="17" t="s">
+    </row>
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="B29" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="4" t="s">
+      <c r="B30" s="23" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="C30" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="10"/>
+    </row>
+    <row r="34" spans="1:5" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="B27" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>350</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
-        <v>354</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
-        <v>353</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="17" t="s">
+      <c r="C34" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D34" s="18" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
-        <v>356</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="13"/>
-    </row>
-    <row r="35" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
+      <c r="E34" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="B35" s="17" t="s">
-        <v>357</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="B37" s="17" t="s">
+      <c r="D36" s="10" t="s">
         <v>167</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1959,10 +1939,10 @@
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="11">
+      <c r="B1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="8">
         <v>23</v>
       </c>
     </row>
@@ -1980,359 +1960,359 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>85</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>184</v>
+        <v>180</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>92</v>
-      </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D9" s="13"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>118</v>
-      </c>
-      <c r="B10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>121</v>
-      </c>
-      <c r="B11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" t="s">
         <v>125</v>
       </c>
-      <c r="C12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>126</v>
+      <c r="D12" s="10" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D13" s="13"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D14" s="13"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" t="s">
         <v>93</v>
-      </c>
-      <c r="C17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" t="s">
         <v>114</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D23" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="C23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>173</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" t="s">
         <v>130</v>
       </c>
-      <c r="B26" t="s">
-        <v>131</v>
-      </c>
-      <c r="C26" t="s">
-        <v>132</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>129</v>
+      <c r="D26" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="E26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" t="s">
         <v>133</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="C28" t="s">
-        <v>135</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C30" t="s">
-        <v>139</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>136</v>
       </c>
       <c r="E30" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B32" t="s">
-        <v>151</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>152</v>
-      </c>
       <c r="E32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" t="s">
         <v>154</v>
       </c>
-      <c r="B34" t="s">
+      <c r="D34" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C34" t="s">
-        <v>156</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>155</v>
-      </c>
       <c r="E34" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>184</v>
+      </c>
+      <c r="B36" t="s">
+        <v>185</v>
+      </c>
+      <c r="C36" t="s">
+        <v>186</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>187</v>
-      </c>
-      <c r="B36" t="s">
-        <v>188</v>
-      </c>
-      <c r="C36" t="s">
-        <v>189</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>202</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B40" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C40" t="s">
-        <v>215</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>224</v>
+      </c>
+      <c r="B42" t="s">
+        <v>225</v>
+      </c>
+      <c r="C42" t="s">
         <v>227</v>
       </c>
-      <c r="B42" t="s">
-        <v>228</v>
-      </c>
-      <c r="C42" t="s">
-        <v>230</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>229</v>
+      <c r="D42" s="10" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2362,10 +2342,10 @@
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="11">
+      <c r="B1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="8">
         <v>22</v>
       </c>
     </row>
@@ -2385,285 +2365,285 @@
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
         <v>77</v>
       </c>
-      <c r="C21" t="s">
-        <v>79</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" t="s">
         <v>145</v>
-      </c>
-      <c r="C24" t="s">
-        <v>146</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="E24" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>177</v>
-      </c>
-      <c r="B26" t="s">
-        <v>178</v>
-      </c>
-      <c r="C26" t="s">
-        <v>179</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B28" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C28" t="s">
-        <v>191</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>192</v>
+        <v>188</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B30" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C30" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>219</v>
+      </c>
+      <c r="B31" t="s">
+        <v>221</v>
+      </c>
+      <c r="C31" t="s">
         <v>222</v>
       </c>
-      <c r="B31" t="s">
-        <v>224</v>
-      </c>
-      <c r="C31" t="s">
-        <v>225</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>226</v>
+      <c r="D31" s="12" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B33" t="s">
+        <v>203</v>
+      </c>
+      <c r="C33" t="s">
         <v>206</v>
       </c>
-      <c r="C33" t="s">
-        <v>209</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>208</v>
+      <c r="D33" s="10" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B34" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C34" t="s">
+        <v>207</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B37" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C37" t="s">
-        <v>218</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>219</v>
+        <v>215</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>232</v>
+        <v>42</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2687,668 +2667,668 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+    <row r="13" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+    <row r="21" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+    <row r="25" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+    <row r="29" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+    <row r="33" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+    <row r="37" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
+    <row r="41" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
+    <row r="45" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="12"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
+    <row r="49" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="12"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
+    <row r="53" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="15" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="12"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="12" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="15" t="s">
+    <row r="57" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="12"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="15"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="15" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
+    <row r="61" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="15" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="12"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="15" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="15" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="12" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="15" t="s">
+    <row r="65" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="12" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="15"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="15" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="12"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="12" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="15" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="15" t="s">
+    <row r="69" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="12" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="15"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="15" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="12"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="12" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="15" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="12" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="15" t="s">
+    <row r="73" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="12" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="15"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="15" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="12" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="15" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="15" t="s">
+    <row r="78" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="12" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="15" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="12"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="12" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="15" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="12" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="15" t="s">
+    <row r="82" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="12" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="15"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="15" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="12"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="12" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="15" t="s">
+    <row r="85" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="12" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="15" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="12"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="12" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="15"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="15" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="12" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="15" t="s">
+    <row r="89" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="12" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="15"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="15" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="12"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="12" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="15" t="s">
+    <row r="92" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A92" s="12" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="15" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="12"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="12" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="15"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="15" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="12" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A92" s="15" t="s">
+    <row r="96" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="12" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="15"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="15" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="12"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="12" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="15" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="12" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="15" t="s">
+    <row r="100" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="12" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="15"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="15" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="12"/>
+    </row>
+    <row r="102" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="12" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="15" t="s">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="12" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="15" t="s">
+    <row r="104" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="12" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="15"/>
-    </row>
-    <row r="102" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="15" t="s">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="12"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="12" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="15" t="s">
+    <row r="107" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="12" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="15" t="s">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="12"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="12" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="15"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="15" t="s">
+    <row r="110" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="12" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="15" t="s">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="12"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="15"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="15" t="s">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="12" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="15" t="s">
+    <row r="114" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A114" s="12" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="15"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="15" t="s">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="12"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="12" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="15" t="s">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="12" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A114" s="15" t="s">
+    <row r="118" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="12" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="15"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="15" t="s">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="12"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="12" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="15" t="s">
+    <row r="121" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="12" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A118" s="15" t="s">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="12"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="12" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="15"/>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="15" t="s">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="12" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="15" t="s">
+    <row r="125" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="12" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="15"/>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="15" t="s">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="12"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="12" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="15" t="s">
+    <row r="128" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A128" s="13" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="15" t="s">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="13"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="12" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="15"/>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="15" t="s">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="12" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A128" s="16" t="s">
+    <row r="132" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A132" s="12" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="16"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="15" t="s">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="12"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="12" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="15" t="s">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="12" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A132" s="15" t="s">
+    <row r="136" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A136" s="12" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="15"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="15" t="s">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="12"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="12" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="15" t="s">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="12" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A136" s="15" t="s">
+    <row r="140" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140" s="12" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="15"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="15" t="s">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="12"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="12" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="15" t="s">
+    <row r="143" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A143" s="12" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="15" t="s">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="12"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="12" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="15"/>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="15" t="s">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="12" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A143" s="15" t="s">
+    <row r="147" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A147" s="12" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="15"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="15" t="s">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="12"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="12" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="15" t="s">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="12" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A147" s="15" t="s">
+    <row r="151" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151" s="12" t="s">
         <v>336</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="15"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="15" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="15" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A151" s="15" t="s">
-        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/MT - Stories.xlsx
+++ b/MT - Stories.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="356">
   <si>
     <t>Title</t>
   </si>
@@ -97,9 +97,6 @@
     <t>&lt;MTLeader&gt; died</t>
   </si>
   <si>
-    <t>Today is a solemn day.  &lt;MTLeaderTitle&gt; &lt;MTLeader&gt; no longer walks the world of the living.  Martian society would not be what it is today without the indelible touch of &lt;MTLeaderTitle &lt;MTLeader&gt; in so many places.  Please take a moment today to stop by your local spacebar and lift one up in honor of the late, great &lt;MTLeaderTitle&gt;.  What are your best memories of the now former &lt;MTLeaderTitle&gt;?  Send in your letters to the editor.  Select entries will be printed in Thursday’s edition.  Thank you for your service, &lt;MTLeaderTitle&gt;.  You will be missed.</t>
-  </si>
-  <si>
     <t>Mars is in Mourning</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
   </si>
   <si>
     <t>Mars Mourns &lt;MTLeaderTitle&gt;’s Passing</t>
-  </si>
-  <si>
-    <t>&lt;MTLeaderTitle&gt; &lt;MTLeader&gt; served us honorably for many a sol and their passing has not gone unnoticed.  Despite serving Mars well during their tenure, it is suspected that they never quite fully adapted to the realities of life on Mars and between the stresses of daily Martian life, serving as our &lt;MTLeaderTitle&gt;, and many a sleepless night, a heart attack finally took them from us.  May your slumber, &lt;MTLeaderTitle&gt; &lt;MTLeader&gt;, be deep and pleasant.  You will be missed.</t>
   </si>
   <si>
     <t>MTMain.NewLeader.1</t>
@@ -1094,6 +1088,15 @@
   </si>
   <si>
     <t>MTMain.FounderLegacy</t>
+  </si>
+  <si>
+    <t>an idiot colonist</t>
+  </si>
+  <si>
+    <t>Today is a solemn day.  &lt;MTLeaderTitle&gt; &lt;MTDeadLeader&gt; no longer walks the world of the living.  Martian society would not be what it is today without the indelible touch of &lt;MTLeaderTitle &lt;MTDeadLeader&gt; in so many places.  Please take a moment today to stop by your local spacebar and lift one up in honor of the late, great &lt;MTLeaderTitle&gt;.  What are your best memories of the now former &lt;MTLeaderTitle&gt;?  Send in your letters to the editor.  Select entries will be printed in Thursday’s edition.  Thank you for your service, &lt;MTLeaderTitle&gt;.  You will be missed.</t>
+  </si>
+  <si>
+    <t>&lt;MTLeaderTitle&gt; &lt;MTDeadLeader&gt; served us honorably for many a sol and their passing has not gone unnoticed.  Despite serving Mars well during their tenure, it is suspected that they never quite fully adapted to the realities of life on Mars and between the stresses of daily Martian life, serving as our &lt;MTLeaderTitle&gt;, and many a sleepless night, a heart attack finally took them from us.  May your slumber, &lt;MTLeaderTitle&gt; &lt;MTDeadLeader&gt;, be deep and pleasant.  You will be missed.</t>
   </si>
 </sst>
 </file>
@@ -1180,7 +1183,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1233,9 +1236,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1246,6 +1246,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1548,30 +1554,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:D13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" style="23" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" style="23" customWidth="1"/>
-    <col min="4" max="4" width="112.28515625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="23"/>
+    <col min="1" max="1" width="24.85546875" style="22" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="112.28515625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="22" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="22">
+      <c r="B1" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="21">
         <v>22</v>
       </c>
     </row>
@@ -1589,18 +1595,18 @@
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>8</v>
@@ -1613,7 +1619,7 @@
     </row>
     <row r="5" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>9</v>
@@ -1626,56 +1632,56 @@
       </c>
     </row>
     <row r="7" spans="1:5" s="14" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="19"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="24"/>
     </row>
     <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C10" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>192</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C11" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>193</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>15</v>
@@ -1684,226 +1690,226 @@
         <v>16</v>
       </c>
       <c r="D13" s="15" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="14" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="22" t="s">
+      <c r="B26" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="14" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="24" t="s">
+      <c r="D26" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="23" t="s">
+    </row>
+    <row r="27" spans="1:5" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
+      <c r="C27" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B26" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="23" t="s">
+      <c r="B28" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="D26" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+      <c r="B29" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="14" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="B27" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
-        <v>347</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
-        <v>346</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
+      <c r="B31" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="10"/>
+    </row>
+    <row r="33" spans="1:5" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="B33" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="B30" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="23" t="s">
+      <c r="C33" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D33" s="18" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
-        <v>350</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="10"/>
-    </row>
-    <row r="34" spans="1:5" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="C34" s="14" t="s">
+      <c r="E33" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="14" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="D34" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
+      <c r="C35" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D35" s="17" t="s">
         <v>165</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1940,7 +1946,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C1" s="8">
         <v>23</v>
@@ -1960,69 +1966,69 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>83</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>90</v>
-      </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2030,44 +2036,44 @@
     </row>
     <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>116</v>
-      </c>
-      <c r="B10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="B11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" t="s">
         <v>123</v>
       </c>
-      <c r="C12" t="s">
-        <v>125</v>
-      </c>
       <c r="D12" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2078,241 +2084,241 @@
     </row>
     <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" t="s">
         <v>91</v>
-      </c>
-      <c r="C17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" t="s">
         <v>112</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D23" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="C23" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="D24" s="10" t="s">
         <v>171</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" t="s">
         <v>128</v>
       </c>
-      <c r="B26" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" t="s">
-        <v>130</v>
-      </c>
       <c r="D26" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" t="s">
         <v>131</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="C28" t="s">
-        <v>133</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B30" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E30" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" t="s">
+        <v>147</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B32" t="s">
-        <v>149</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>150</v>
-      </c>
       <c r="E32" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" t="s">
         <v>152</v>
       </c>
-      <c r="B34" t="s">
+      <c r="D34" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C34" t="s">
-        <v>154</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>153</v>
-      </c>
       <c r="E34" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>182</v>
+      </c>
+      <c r="B36" t="s">
+        <v>183</v>
+      </c>
+      <c r="C36" t="s">
         <v>184</v>
       </c>
-      <c r="B36" t="s">
+      <c r="D36" s="10" t="s">
         <v>185</v>
-      </c>
-      <c r="C36" t="s">
-        <v>186</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>198</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>200</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B40" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C40" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>222</v>
+      </c>
+      <c r="B42" t="s">
+        <v>223</v>
+      </c>
+      <c r="C42" t="s">
+        <v>225</v>
+      </c>
+      <c r="D42" s="10" t="s">
         <v>224</v>
-      </c>
-      <c r="B42" t="s">
-        <v>225</v>
-      </c>
-      <c r="C42" t="s">
-        <v>227</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2343,7 +2349,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C1" s="8">
         <v>22</v>
@@ -2365,285 +2371,285 @@
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" t="s">
         <v>75</v>
       </c>
-      <c r="C21" t="s">
-        <v>77</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" t="s">
         <v>143</v>
-      </c>
-      <c r="C24" t="s">
-        <v>144</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E24" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>172</v>
+      </c>
+      <c r="B26" t="s">
+        <v>173</v>
+      </c>
+      <c r="C26" t="s">
         <v>174</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" s="12" t="s">
         <v>175</v>
-      </c>
-      <c r="C26" t="s">
-        <v>176</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B28" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C28" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B30" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C30" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>217</v>
+      </c>
+      <c r="B31" t="s">
         <v>219</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
+        <v>220</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>221</v>
-      </c>
-      <c r="C31" t="s">
-        <v>222</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>202</v>
+      </c>
+      <c r="B33" t="s">
+        <v>201</v>
+      </c>
+      <c r="C33" t="s">
         <v>204</v>
       </c>
-      <c r="B33" t="s">
+      <c r="D33" s="10" t="s">
         <v>203</v>
-      </c>
-      <c r="C33" t="s">
-        <v>206</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>206</v>
+      </c>
+      <c r="B34" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" t="s">
+        <v>205</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="B34" t="s">
-        <v>209</v>
-      </c>
-      <c r="C34" t="s">
-        <v>207</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B37" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C37" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2667,22 +2673,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -2690,17 +2696,17 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -2708,17 +2714,17 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
@@ -2726,17 +2732,17 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -2744,17 +2750,17 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -2762,17 +2768,17 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
@@ -2780,17 +2786,17 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
@@ -2798,17 +2804,17 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
@@ -2816,17 +2822,17 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
@@ -2834,17 +2840,17 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
@@ -2852,17 +2858,17 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
@@ -2870,17 +2876,17 @@
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
@@ -2888,17 +2894,17 @@
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
@@ -2906,17 +2912,17 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
@@ -2924,17 +2930,17 @@
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
@@ -2942,17 +2948,17 @@
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
@@ -2960,17 +2966,17 @@
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
@@ -2978,32 +2984,32 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
@@ -3011,17 +3017,17 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
@@ -3029,12 +3035,12 @@
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
@@ -3042,17 +3048,17 @@
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
@@ -3060,12 +3066,12 @@
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
@@ -3073,17 +3079,17 @@
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
@@ -3091,17 +3097,17 @@
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
@@ -3109,17 +3115,17 @@
     </row>
     <row r="102" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
@@ -3127,12 +3133,12 @@
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
@@ -3140,12 +3146,12 @@
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
@@ -3153,17 +3159,17 @@
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
@@ -3171,17 +3177,17 @@
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
@@ -3189,12 +3195,12 @@
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
@@ -3202,17 +3208,17 @@
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
@@ -3220,12 +3226,12 @@
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
@@ -3233,17 +3239,17 @@
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
@@ -3251,17 +3257,17 @@
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
@@ -3269,17 +3275,17 @@
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
@@ -3287,12 +3293,12 @@
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
@@ -3300,17 +3306,17 @@
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="12" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="12" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
@@ -3318,17 +3324,17 @@
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="12" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>

--- a/MT - Stories.xlsx
+++ b/MT - Stories.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="18195" windowHeight="9795"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="18195" windowHeight="9795" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="358">
   <si>
     <t>Title</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Our primary manifesto as a society is to populate the Red Planet.  Someone should remind &lt;MTLeaderTitle&gt; &lt;MTLeader&gt; about that.  They seem to think that scanning the surface and finding suitable resources and dome locations serves no particular purpose.  Have you seen our metals supply lately?  This water isn’t going to last forever, you know.  We need more Sensor Towers.  When will we learn from the past?  The time is now!  This planet is ours for the taking, but only if we know what’s out there!</t>
   </si>
   <si>
-    <t>MTMain.HackThePlanet</t>
-  </si>
-  <si>
     <t>10 sol after last founder has died</t>
   </si>
   <si>
@@ -91,24 +88,15 @@
     <t>&lt;MTLeader&gt; has either GAMBLER, ALCOHOLIC, or GLUTTON trait – colony population over 300</t>
   </si>
   <si>
-    <t>MTMain.LeaderDied.1</t>
-  </si>
-  <si>
     <t>&lt;MTLeader&gt; died</t>
   </si>
   <si>
     <t>Mars is in Mourning</t>
   </si>
   <si>
-    <t>MTMain.LeaderDied.2</t>
-  </si>
-  <si>
     <t>Mars Mourns &lt;MTLeaderTitle&gt;’s Passing</t>
   </si>
   <si>
-    <t>MTMain.NewLeader.1</t>
-  </si>
-  <si>
     <t>New &lt;MTLeader&gt;</t>
   </si>
   <si>
@@ -116,12 +104,6 @@
   </si>
   <si>
     <t>As &lt;MTLeader&gt; steps in to assume the recently vacated role of &lt;MTLeaderTitle&gt;, we can hope that they get their bearings in short order.  We here at the Martian Tribune will keep you apprised of any decrees and movements of the &lt;MTLeaderTitle&gt;.  A new day is dawning here on Mars.  The question remains, however: is that a day of dawning, or a day of darkness.  Our fate is in your hands, &lt;MTLeaderTitle&gt;.  Don’t let us down.</t>
-  </si>
-  <si>
-    <t>MTMain.NewLeader.2</t>
-  </si>
-  <si>
-    <t>MTMain.NewLeader.3</t>
   </si>
   <si>
     <t>&lt;MTLeader&gt; Breathes New Life Into Colony</t>
@@ -271,9 +253,6 @@
     <t>Total stories:</t>
   </si>
   <si>
-    <t>MTSocial.none.1</t>
-  </si>
-  <si>
     <t>Struggling Colonist Adopts Pet</t>
   </si>
   <si>
@@ -286,9 +265,6 @@
     <t>contributor</t>
   </si>
   <si>
-    <t>MTSocial.none.2</t>
-  </si>
-  <si>
     <t>The Refuse Hits The Fan</t>
   </si>
   <si>
@@ -298,9 +274,6 @@
     <t>Last night a sewage pump overflowed in &lt;MTRefuseDome&gt; when one of the pump's propellers broke under the pressure.  After what can only be described as a dining fiasco, last night's meal of extruded bean substitute seems to have played a critical role in overloading the sewage systems. There have been dozens of reports of a foul oder filling the dome even now.  Match use is strictly prohibited until the blockage can be cleared. It will be a rough few days for everyone but there should be no lasting impact once the odor gets washed out of everyone's clothes once and for all.</t>
   </si>
   <si>
-    <t>No dome built in 10 sol, dome has a non-martianborn resident</t>
-  </si>
-  <si>
     <t>Vegan in dome</t>
   </si>
   <si>
@@ -310,12 +283,6 @@
     <t>Earthling Causes Delay</t>
   </si>
   <si>
-    <t>If you've been wondering why no new domes have been built of late, look no further than &lt;MTSocialDomeDelayColonist&gt;.  Apparently they're now taking signatures for a petition to halt all mining operations, claiming them to be raping and pillaging Mars of its natural resources.  &lt;MTSponsor&gt; has taken note of &lt;MTSocialDomeDelayColonist&gt; and should be releasing a statement later today.</t>
-  </si>
-  <si>
-    <t>2 sol after other dome delay story</t>
-  </si>
-  <si>
     <t>MTSocial.DomeDelay.2</t>
   </si>
   <si>
@@ -331,9 +298,6 @@
     <t>Vegan Declares Mars Meat-Free Planet</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;MTVegan&gt; has stepped up to make their presence known today as they've declared Mars to be Vegan Atlantis.  With Earth now lost forever to the carnivores, Mars is as yet unmarred by the carnivorous and &lt;MTVegan&gt; has vowed to do everything in their power to keep it that way.  Doesn't sound good for all the bacon lovers out there, but &lt;MTMedic&gt; has stepped up to back the proposition as well.  We'll have to wait and see if it sticks.</t>
-  </si>
-  <si>
     <t>MTSocial.Vegan.1</t>
   </si>
   <si>
@@ -349,9 +313,6 @@
     <t>20 sol after Vegan.2 story</t>
   </si>
   <si>
-    <t>50 sol after Vegan.1 story presented, no synthetic meat mod</t>
-  </si>
-  <si>
     <t>Mars Still Meat Free</t>
   </si>
   <si>
@@ -394,12 +355,6 @@
     <t>New Sport Established On Mars</t>
   </si>
   <si>
-    <t>adult in a Dome with a Security Station, 10 sol after DroneHack.1 or DroneHack.2</t>
-  </si>
-  <si>
-    <t>&lt;MTDroneHackAdult&gt; was brought in to the Security Station last night on charges of Unsanctioned Drone Use.  Under the new Martian Law it is now prohibited to hack into drones for personal use.  To make things worse, &lt;MTDroneHackAdult&gt; is alleged to have been siphoning off Rare Metals for personal gain.  Expect formal charges in the coming days.</t>
-  </si>
-  <si>
     <t>New Martian Law Enforced</t>
   </si>
   <si>
@@ -520,9 +475,6 @@
     <t>Colonist with Sexy trait</t>
   </si>
   <si>
-    <t>MTMain.AdultFilm</t>
-  </si>
-  <si>
     <t>SpaceXXX</t>
   </si>
   <si>
@@ -559,21 +511,12 @@
     <t>Dome dimwit &lt;MTIdiot&gt; has once again managed to again find a way to get around the idiot-proof safety features of the &lt;MTIdiotWorkplace&gt; with an amazing display of acrobatics, luck and skill, &lt;MTIdiot&gt; found themselves, once again, holding a vital part of the building in their hand as they left work today. -I honestly, have no idea how they managed it, the building can't function without it, so we had it behind 3ft of concrete, yet, somehow, they still managed to walk off with it. I'm not even mad, it really is just plain amazing."</t>
   </si>
   <si>
-    <t>MTSocial.none.3</t>
-  </si>
-  <si>
     <t>MTSocial.diner.1</t>
   </si>
   <si>
     <t>Political Ambitions Set Too High?</t>
   </si>
   <si>
-    <t>A polotician on Earth has stated the obvious this week by claiming that Mars is red.  The hopeful senator took it a step further by declaring that Mars is a communist Planet, with "nothing but red". After performing some reconnissance here at the Martian Tribune Headquarters, we would like to confirm that Mars is indeed red.  The claims of communism getting a foothold, however, will have to be fielded by the &lt;MTLeaderTitle&gt;.</t>
-  </si>
-  <si>
-    <t>After the opening of our new open-air gym in &lt;MTGymDome&gt;, &lt;MTSponsor&gt; applied to host the Olympics on mars, saying, -We have the best view of  Mount Olympus, and a Gym, what more could one ask for?- The Olympics committee on Earth rejected the proposal, saying -Wait, that was an actual bid? You don't even have a pool." &lt;MTSponsor&gt; responded by saying they will start their own Olympics.  Expect blackjack, marbles, and several events at the gym to headline the experience.</t>
-  </si>
-  <si>
     <t>Olympic Bid Rejected</t>
   </si>
   <si>
@@ -1036,21 +979,9 @@
     <t>Story: Got any aches and pains? Go to the infirmery and ask for Domelenol painkiller, the only painkiller on mars. Warning; Domelenol will not cure earthsickness, headaches, being an idiot, toothaches, alcoholism, feelings of loneliness, Gambling addiction, or just about anything else.</t>
   </si>
   <si>
-    <t>MTMain.MTrockets3</t>
-  </si>
-  <si>
-    <t>MTMain.MTrockets0</t>
-  </si>
-  <si>
     <t>Rocket Silhouettes Mar Martian Landscape</t>
   </si>
   <si>
-    <t>MTMain.Finances1</t>
-  </si>
-  <si>
-    <t>MTMain.Finances2</t>
-  </si>
-  <si>
     <t>Attending a clinic is often a place to learn, unless you’re &lt;MTLeaderTitle&gt; &lt;MTLeader&gt;.  Apparently it’s expected that resources will move themselves and planning is just plain overrated.  &lt;MTLeaderTitle&gt;, we need more drones and we need them yesterday!  I only hope that &lt;DOMEwithNOfarm&gt; receives their food and other essential supplies in time.</t>
   </si>
   <si>
@@ -1060,9 +991,6 @@
     <t>We Are Martian</t>
   </si>
   <si>
-    <t>MTMain.MTWeAreMartian</t>
-  </si>
-  <si>
     <t>MTOnThisDayin1997</t>
   </si>
   <si>
@@ -1081,15 +1009,9 @@
     <t>No humans</t>
   </si>
   <si>
-    <t>MTNoHumansStory() / MTNoHumans</t>
-  </si>
-  <si>
     <t>under $300 M</t>
   </si>
   <si>
-    <t>MTMain.FounderLegacy</t>
-  </si>
-  <si>
     <t>an idiot colonist</t>
   </si>
   <si>
@@ -1097,6 +1019,90 @@
   </si>
   <si>
     <t>&lt;MTLeaderTitle&gt; &lt;MTDeadLeader&gt; served us honorably for many a sol and their passing has not gone unnoticed.  Despite serving Mars well during their tenure, it is suspected that they never quite fully adapted to the realities of life on Mars and between the stresses of daily Martian life, serving as our &lt;MTLeaderTitle&gt;, and many a sleepless night, a heart attack finally took them from us.  May your slumber, &lt;MTLeaderTitle&gt; &lt;MTDeadLeader&gt;, be deep and pleasant.  You will be missed.</t>
+  </si>
+  <si>
+    <t>A politician on Earth has stated the obvious this week by claiming that Mars is red.  The hopeful senator took it a step further by declaring that Mars is a communist Planet, with "nothing but red". After performing some reconnissance here at the Martian Tribune Headquarters, we would like to confirm that Mars is indeed red.  The claims of communism getting a foothold, however, will have to be fielded by the &lt;MTLeaderTitle&gt;.</t>
+  </si>
+  <si>
+    <t>colonists present</t>
+  </si>
+  <si>
+    <t>dome with open air gym</t>
+  </si>
+  <si>
+    <t>After the opening of our new open-air gym in &lt;MTGymDome&gt;, &lt;MTSponsor&gt; applied to host the Olympics on mars, saying, -We have the best view of  Mount Olympus, and a Gym, what more could one ask for?- The Olympics committee on Earth rejected the proposal, saying -Wait, that was an actual bid? You don't even have a pool." &lt;MTSponsor&gt; responded by saying they will start their own Olympics.  Expect blackjack, marbles, Drone Jumping, and several running events at the gym to headline the experience.</t>
+  </si>
+  <si>
+    <t>&lt;MTDroneHacker&gt; was brought in to the Security Station last night on charges of Unsanctioned Drone Use.  Under the new Martian Law it is now prohibited to hack into drones for personal use.  To make things worse, &lt;MTDroneHacker&gt; is alleged to have been siphoning off Rare Metals for personal gain.  Expect formal charges in the coming days.</t>
+  </si>
+  <si>
+    <t>Dome with a Security Station, 10 sol after DroneHack.1 or DroneHack.2</t>
+  </si>
+  <si>
+    <t>MTPetRock</t>
+  </si>
+  <si>
+    <t>MTPoliticalAmbitions</t>
+  </si>
+  <si>
+    <t>MTrockets3</t>
+  </si>
+  <si>
+    <t>MTrockets0</t>
+  </si>
+  <si>
+    <t>MTHackThePlanet</t>
+  </si>
+  <si>
+    <t>MTFinances1</t>
+  </si>
+  <si>
+    <t>MTFinances2</t>
+  </si>
+  <si>
+    <t>MTFoundersLegacy</t>
+  </si>
+  <si>
+    <t>MTLeaderDied1</t>
+  </si>
+  <si>
+    <t>MTLeaderDied2</t>
+  </si>
+  <si>
+    <t>MTNewLeader1</t>
+  </si>
+  <si>
+    <t>MTNewLeader2</t>
+  </si>
+  <si>
+    <t>MTNewLeader3</t>
+  </si>
+  <si>
+    <t>MTWeAreMartian</t>
+  </si>
+  <si>
+    <t>MTNoHumans</t>
+  </si>
+  <si>
+    <t>MTAdultFilm</t>
+  </si>
+  <si>
+    <t>MTOlympicBid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;MTVegan&gt; has stepped up to make their presence known today as they've declared Mars to be Vegan Atlantis.  With Earth now lost forever to the carnivores, Mars is as yet unmarred by the carnivorous and &lt;MTVegan&gt; has vowed to do everything in their power to keep it that way.  Doesn't sound good for all the bacon lovers out there as  &lt;MTMedic&gt; has stepped up to back the proposition as well.  We'll have to wait and see if it sticks.</t>
+  </si>
+  <si>
+    <t>20 sol after Vegan.1 story presented, no synthetic meat mod</t>
+  </si>
+  <si>
+    <t>If you've been wondering why no new domes have been built of late, look no further than &lt;MTSocialDomeDelayColonist&gt;.  Apparently they're now taking signatures for a petition to halt all mining operations, claiming them to be 'raping and pillaging Mars of its natural resources.'  &lt;MTSponsor&gt; has taken note of &lt;MTSocialDomeDelayColonist&gt; and should be releasing a statement later this very sol.</t>
+  </si>
+  <si>
+    <t>3 sol after other dome delay story</t>
+  </si>
+  <si>
+    <t>No dome built in 10 sol, no dome under construction, dome has a non-martianborn resident</t>
   </si>
 </sst>
 </file>
@@ -1212,9 +1218,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1251,6 +1254,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1554,31 +1560,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:D24"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" style="22" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" style="22" customWidth="1"/>
-    <col min="4" max="4" width="112.28515625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="22" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="1" width="24.85546875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="112.28515625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="21" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="21">
-        <v>22</v>
+      <c r="B1" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="20">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1595,321 +1601,321 @@
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+    </row>
+    <row r="5" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="13" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="23"/>
+    </row>
+    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="13" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-    </row>
-    <row r="5" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="14" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="24"/>
-    </row>
-    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="B10" s="14" t="s">
+      <c r="E23" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="13" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" spans="1:5" s="13" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="13" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="14" t="s">
+      <c r="B31" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="D34" s="20" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="20" t="s">
         <v>19</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="14" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="14" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="10"/>
-    </row>
-    <row r="33" spans="1:5" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="14" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1928,8 +1934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E32" sqref="A32:E32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1946,7 +1952,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C1" s="8">
         <v>23</v>
@@ -1966,69 +1972,69 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="15" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="15" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="15" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" t="s">
-        <v>83</v>
+      <c r="E8" s="15" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2036,44 +2042,44 @@
     </row>
     <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>121</v>
+        <v>335</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>122</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2084,241 +2090,241 @@
     </row>
     <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>89</v>
+        <v>357</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>93</v>
+        <v>355</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>356</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>100</v>
+        <v>353</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>106</v>
+        <v>354</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="E26" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B28" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C28" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B30" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C30" t="s">
-        <v>135</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>134</v>
+        <v>120</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>119</v>
       </c>
       <c r="E30" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B32" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="E32" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="B34" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C34" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="E34" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="B36" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="C36" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="B40" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="C40" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B42" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="C42" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2349,7 +2355,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C1" s="8">
         <v>22</v>
@@ -2371,285 +2377,285 @@
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C24" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="E24" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="B26" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="C26" t="s">
-        <v>174</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>175</v>
+        <v>158</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="B28" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="C28" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="B30" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="C30" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="B31" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="C31" t="s">
-        <v>220</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>221</v>
+        <v>201</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="B33" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="C33" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="B34" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="C34" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="B37" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="C37" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -2673,668 +2679,668 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    <row r="33" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+    <row r="37" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+    <row r="41" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+    <row r="45" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+    <row r="49" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+    <row r="53" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+    <row r="57" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="11"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+    <row r="61" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="11"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="11" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+    <row r="65" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="11"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
+    <row r="69" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="11" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="11"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
+    <row r="73" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="11" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="11" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
+    <row r="78" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="11" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="11"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="11" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="11" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
+    <row r="82" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="11" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="11"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="11" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
+    <row r="85" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="12" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="12" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="11"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="11" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="11" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="12"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="12" t="s">
+    <row r="89" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="11" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="12" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="11"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="11" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="12" t="s">
+    <row r="92" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A92" s="11" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="12"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="12" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="11"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="11" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="12" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="11" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
+    <row r="96" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="11" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="12"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="12" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="11"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="11" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="12" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="11" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="12" t="s">
+    <row r="100" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="11" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="12" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="11"/>
+    </row>
+    <row r="102" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="11" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="12" t="s">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="11" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="12" t="s">
+    <row r="104" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="12"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="12" t="s">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="11"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="11" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="12" t="s">
+    <row r="107" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="11" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="12" t="s">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="11"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="11" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="12"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="12" t="s">
+    <row r="110" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="11" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="12" t="s">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="11"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="11" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="12"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="12" t="s">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="11" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="12" t="s">
+    <row r="114" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A114" s="11" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="12" t="s">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="11"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="12"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="12" t="s">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="11" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A92" s="12" t="s">
+    <row r="118" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="11" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="12"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="12" t="s">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="11"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="11" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="12" t="s">
+    <row r="121" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="11" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="12" t="s">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="11"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="11" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="12"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="12" t="s">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="11" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="12" t="s">
+    <row r="125" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="11" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="12" t="s">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="11"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="11" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="12"/>
-    </row>
-    <row r="102" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="12" t="s">
+    <row r="128" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A128" s="12" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="12" t="s">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="12"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="11" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="12" t="s">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="11" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="12"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="12" t="s">
+    <row r="132" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A132" s="11" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="12" t="s">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="11"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="11" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="12"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="12" t="s">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="11" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="12" t="s">
+    <row r="136" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A136" s="11" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="12"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="12" t="s">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="11"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="11" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="12" t="s">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="11" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A114" s="12" t="s">
+    <row r="140" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="12"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="12" t="s">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="11"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="11" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="12" t="s">
+    <row r="143" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A143" s="11" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A118" s="12" t="s">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="11"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="11" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="12"/>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="12" t="s">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="11" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="12" t="s">
+    <row r="147" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A147" s="11" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="12"/>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="12" t="s">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="11"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="11" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="12" t="s">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="11" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="12" t="s">
+    <row r="151" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151" s="11" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="12"/>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="12" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A128" s="13" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="13"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="12" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="12" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A132" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="12"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="12" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="12" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A136" s="12" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="12"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="12" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="12" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="12" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="12"/>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A143" s="12" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="12"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="12" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="12" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A147" s="12" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="12"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="12" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="12" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A151" s="12" t="s">
-        <v>334</v>
       </c>
     </row>
   </sheetData>

--- a/MT - Stories.xlsx
+++ b/MT - Stories.xlsx
@@ -286,9 +286,6 @@
     <t>MTSocial.DomeDelay.2</t>
   </si>
   <si>
-    <t>MTSocial.DomeDelay.1</t>
-  </si>
-  <si>
     <t>As proof that rumors travel faster than light, word of &lt;MTSocialDomeDelayColonist&gt;'s attempt to halt mining operations reached &lt;sponsor&gt;'s ears on Earth.  While &lt;MTLeaderTitle&gt; &lt;MTLeader&gt; has yet to make any formal declarations, &lt;MTSocialDomeDelayColonist&gt; has already gone on the record to declare that it was all a giant April Fool's Day joke.  Whether it is or not, this reporter is not amused.</t>
   </si>
   <si>
@@ -298,21 +295,9 @@
     <t>Vegan Declares Mars Meat-Free Planet</t>
   </si>
   <si>
-    <t>MTSocial.Vegan.1</t>
-  </si>
-  <si>
-    <t>MTSocial.Vegan.2</t>
-  </si>
-  <si>
     <t>&lt;MTVegan&gt;'s ambitious proposition of a meat-free Mars seems to be gaining momentum as over 50 sol have passed and no cattle nor hog has yet seen import.  Talks have also been arranged with &lt;MTSponsor&gt; to consider the issue more in depth.</t>
   </si>
   <si>
-    <t>MTSocial.Vegan.3</t>
-  </si>
-  <si>
-    <t>20 sol after Vegan.2 story</t>
-  </si>
-  <si>
     <t>Mars Still Meat Free</t>
   </si>
   <si>
@@ -322,21 +307,12 @@
     <t>The VMC has announced Saturday to be Spudtato Day.  As the faction gains traction, so does their hold on Martian Cuisine, but perhaps this is one we can all get behind.  Let the fries flow!</t>
   </si>
   <si>
-    <t>MTSocial.Vegan.4</t>
-  </si>
-  <si>
-    <t>10 sol after Vegan.3 story</t>
-  </si>
-  <si>
     <t>Vegan Martian Coalition Talks Stalled</t>
   </si>
   <si>
     <t>Though the VMC has garnered the favor of &lt;MTSponsor&gt;, &lt;MTSponsor&gt; has claimed to receive billions of complaints from Earthlings who once desired to travel to Mars have begun to withdraw their applications by the thousands citing bacon as the primary reason.  While the backlash might dampen &lt;MTSponsor&gt;'s support, this reporter for one is pleased with the health benefits.</t>
   </si>
   <si>
-    <t>MTSocial.DroneHack.1</t>
-  </si>
-  <si>
     <t>Teenager Takes Drone for a Joy Ride</t>
   </si>
   <si>
@@ -487,12 +463,6 @@
     <t>It has been reported that a local alliance of Martians believe that because so many drones are now integral to our daily lives they now deserve the same rights as colonists. &lt;MTDroneColonist&gt;,  the leader of the self-dubbed Drone Alliance for Freedom and Transparency (DAFT) has stated that -these drones do more work then all of the humans on mars combined- when asked if this meant drones should be able to vote as well &lt;MTDroneColonist&gt; responded -what? no, that's ridiculous, they are machines...-</t>
   </si>
   <si>
-    <t>MTSocial.Vegan.5</t>
-  </si>
-  <si>
-    <t>Vegan in dome, dome has diner, pre-sol-50</t>
-  </si>
-  <si>
     <t>Is this Vegan?</t>
   </si>
   <si>
@@ -1093,9 +1063,6 @@
     <t xml:space="preserve"> &lt;MTVegan&gt; has stepped up to make their presence known today as they've declared Mars to be Vegan Atlantis.  With Earth now lost forever to the carnivores, Mars is as yet unmarred by the carnivorous and &lt;MTVegan&gt; has vowed to do everything in their power to keep it that way.  Doesn't sound good for all the bacon lovers out there as  &lt;MTMedic&gt; has stepped up to back the proposition as well.  We'll have to wait and see if it sticks.</t>
   </si>
   <si>
-    <t>20 sol after Vegan.1 story presented, no synthetic meat mod</t>
-  </si>
-  <si>
     <t>If you've been wondering why no new domes have been built of late, look no further than &lt;MTSocialDomeDelayColonist&gt;.  Apparently they're now taking signatures for a petition to halt all mining operations, claiming them to be 'raping and pillaging Mars of its natural resources.'  &lt;MTSponsor&gt; has taken note of &lt;MTSocialDomeDelayColonist&gt; and should be releasing a statement later this very sol.</t>
   </si>
   <si>
@@ -1103,6 +1070,39 @@
   </si>
   <si>
     <t>No dome built in 10 sol, no dome under construction, dome has a non-martianborn resident</t>
+  </si>
+  <si>
+    <t>MTDroneHack1</t>
+  </si>
+  <si>
+    <t>MTSocial.EarthlingDelay1</t>
+  </si>
+  <si>
+    <t>9 sol after Vegan.3 story</t>
+  </si>
+  <si>
+    <t>Vegan in dome, dome has diner</t>
+  </si>
+  <si>
+    <t>MTSocial.VeganDiner</t>
+  </si>
+  <si>
+    <t>MTSocial.Vegan1</t>
+  </si>
+  <si>
+    <t>MTSocial.Vegan2</t>
+  </si>
+  <si>
+    <t>MTSocial.Vegan3</t>
+  </si>
+  <si>
+    <t>MTSocial.Vegan4</t>
+  </si>
+  <si>
+    <t>10 sol after Vegan.1 story</t>
+  </si>
+  <si>
+    <t>12 sol after Vegan.2 story</t>
   </si>
 </sst>
 </file>
@@ -1249,14 +1249,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1562,8 +1562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1601,18 +1601,18 @@
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>8</v>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="5" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>9</v>
@@ -1638,56 +1638,56 @@
       </c>
     </row>
     <row r="7" spans="1:5" s="13" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="B7" s="23" t="s">
+      <c r="A7" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="23"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="24"/>
     </row>
     <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>14</v>
@@ -1696,12 +1696,12 @@
         <v>15</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>23</v>
@@ -1710,12 +1710,12 @@
         <v>24</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>23</v>
@@ -1724,12 +1724,12 @@
         <v>25</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>26</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>26</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>26</v>
@@ -1771,13 +1771,13 @@
     </row>
     <row r="22" spans="1:5" s="13" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>33</v>
@@ -1785,75 +1785,75 @@
     </row>
     <row r="23" spans="1:5" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="13" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1861,33 +1861,33 @@
     </row>
     <row r="29" spans="1:5" s="13" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="13" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1901,7 +1901,7 @@
         <v>16</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1934,8 +1934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1977,10 +1977,10 @@
     </row>
     <row r="3" spans="1:5" s="15" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>74</v>
@@ -1994,35 +1994,35 @@
     </row>
     <row r="4" spans="1:5" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="15" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="15" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>79</v>
@@ -2030,7 +2030,7 @@
       <c r="C8" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="23" t="s">
         <v>80</v>
       </c>
       <c r="E8" s="15" t="s">
@@ -2040,46 +2040,46 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:5" s="15" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="15" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="15" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="C12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>334</v>
+      <c r="B12" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2088,243 +2088,243 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" s="10"/>
     </row>
-    <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:5" s="15" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="15" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="4" t="s">
+    </row>
+    <row r="20" spans="1:5" s="15" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="C17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="C22" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="15" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="E17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" t="s">
-        <v>356</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>89</v>
-      </c>
-      <c r="B20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="E20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="C21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B23" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D23" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>152</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>155</v>
+    </row>
+    <row r="24" spans="1:5" s="15" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C26" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D26" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" t="s">
         <v>110</v>
-      </c>
-      <c r="E26" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C28" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C30" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E30" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B32" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E32" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B34" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C34" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E34" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B36" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C36" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B40" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C40" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B42" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C42" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2523,103 +2523,103 @@
     </row>
     <row r="24" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B24" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C24" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B26" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C26" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B28" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C28" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B30" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C30" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B31" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C31" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B33" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C33" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B34" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C34" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2632,30 +2632,30 @@
     </row>
     <row r="37" spans="1:4" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B37" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C37" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B39" t="s">
         <v>34</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2679,22 +2679,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -2702,17 +2702,17 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -2720,17 +2720,17 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
@@ -2738,17 +2738,17 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -2756,17 +2756,17 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -2774,17 +2774,17 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
@@ -2792,17 +2792,17 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
@@ -2810,17 +2810,17 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
@@ -2828,17 +2828,17 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
@@ -2846,17 +2846,17 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
@@ -2864,17 +2864,17 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
@@ -2882,17 +2882,17 @@
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
@@ -2900,17 +2900,17 @@
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
@@ -2918,17 +2918,17 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
@@ -2936,17 +2936,17 @@
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
@@ -2954,17 +2954,17 @@
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
@@ -2972,17 +2972,17 @@
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
@@ -2990,32 +2990,32 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
@@ -3023,17 +3023,17 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
@@ -3041,12 +3041,12 @@
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
@@ -3054,17 +3054,17 @@
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
@@ -3072,12 +3072,12 @@
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
@@ -3085,17 +3085,17 @@
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
@@ -3103,17 +3103,17 @@
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
@@ -3121,17 +3121,17 @@
     </row>
     <row r="102" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
@@ -3139,12 +3139,12 @@
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
@@ -3152,12 +3152,12 @@
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
@@ -3165,17 +3165,17 @@
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
@@ -3183,17 +3183,17 @@
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
@@ -3201,12 +3201,12 @@
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
@@ -3214,17 +3214,17 @@
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
@@ -3232,12 +3232,12 @@
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
@@ -3245,17 +3245,17 @@
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
@@ -3263,17 +3263,17 @@
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
@@ -3281,17 +3281,17 @@
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
@@ -3299,12 +3299,12 @@
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
@@ -3312,17 +3312,17 @@
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
@@ -3330,17 +3330,17 @@
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/MT - Stories.xlsx
+++ b/MT - Stories.xlsx
@@ -1562,7 +1562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1934,8 +1934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2192,49 +2192,46 @@
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:5" s="15" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="15" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:5" s="15" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
-      </c>
-      <c r="C30" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>111</v>
+        <v>124</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="E30" t="s">
         <v>110</v>
@@ -2242,13 +2239,16 @@
     </row>
     <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B32" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="C32" t="s">
+        <v>129</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E32" t="s">
         <v>110</v>
@@ -2256,75 +2256,75 @@
     </row>
     <row r="34" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="B34" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="C34" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E34" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>153</v>
-      </c>
-      <c r="B36" t="s">
-        <v>154</v>
-      </c>
-      <c r="C36" t="s">
-        <v>155</v>
+        <v>169</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>169</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D38" s="10" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="38" spans="1:5" s="15" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B38" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C38" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D38" s="16" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" s="15" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>193</v>
+        <v>114</v>
       </c>
       <c r="B42" t="s">
-        <v>194</v>
+        <v>113</v>
       </c>
       <c r="C42" t="s">
-        <v>196</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>195</v>
+        <v>112</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/MT - Stories.xlsx
+++ b/MT - Stories.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="18195" windowHeight="9795" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="18195" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="4" r:id="rId1"/>
@@ -1909,9 +1909,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2379,8 +2379,8 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3004,8 +3004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>

--- a/MT - Stories.xlsx
+++ b/MT - Stories.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="18195" windowHeight="9795"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="18195" windowHeight="9795" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="464">
   <si>
     <t>Title</t>
   </si>
@@ -1909,7 +1909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
@@ -3613,10 +3613,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A90"/>
+  <dimension ref="A1:A86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3626,334 +3626,320 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>97</v>
-      </c>
+      <c r="A1" s="22"/>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+      <c r="A3" s="9" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
         <v>216</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+    </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
+      <c r="A8" s="9" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
         <v>322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
         <v>325</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
         <v>327</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
         <v>330</v>
       </c>
     </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+    </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
+      <c r="A30" s="9" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
         <v>337</v>
       </c>
     </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+    </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
+      <c r="A34" s="9" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
         <v>348</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
         <v>449</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
         <v>334</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
         <v>338</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
         <v>342</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
         <v>345</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
         <v>351</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="9"/>
+      <c r="A68" s="9" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="9"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="9"/>
+      <c r="A69" s="9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>354</v>
+        <v>444</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>444</v>
+        <v>354</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="9" t="s">
-        <v>354</v>
+      <c r="A84" s="23" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="9" t="s">
-        <v>365</v>
+      <c r="A85" s="23" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A86" s="9" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="23" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="23" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="23" t="s">
+      <c r="A86" s="23" t="s">
         <v>369</v>
       </c>
     </row>
